--- a/data/evaluation/evaluation_North_Autumn_Carrots.xlsx
+++ b/data/evaluation/evaluation_North_Autumn_Carrots.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3039.793121693121</v>
+        <v>3231.542195767195</v>
       </c>
       <c r="C3" t="n">
-        <v>36531836.88717735</v>
+        <v>37238524.90385945</v>
       </c>
       <c r="D3" t="n">
-        <v>6044.157252022596</v>
+        <v>6102.337658951646</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3600100687571745</v>
+        <v>0.3476298203562173</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2973.489086115735</v>
+        <v>3223.976880170601</v>
       </c>
       <c r="C4" t="n">
-        <v>19102835.01761216</v>
+        <v>21904348.74442513</v>
       </c>
       <c r="D4" t="n">
-        <v>4370.679011047616</v>
+        <v>4680.208194559846</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6653433522321504</v>
+        <v>0.6162645012853427</v>
       </c>
     </row>
     <row r="5">
